--- a/0.1.0/StructureDefinition-cdm-claim-facility.xlsx
+++ b/0.1.0/StructureDefinition-cdm-claim-facility.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$176</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5962" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6026" uniqueCount="771">
   <si>
     <t>Path</t>
   </si>
@@ -1372,6 +1372,16 @@
     <t>Claim.diagnosis.extension</t>
   </si>
   <si>
+    <t>majorDiagnosticCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/major-diagnostic-category}
+</t>
+  </si>
+  <si>
+    <t>The body system or disease related groupings of clinical conditions, based on diagnosis codes</t>
+  </si>
+  <si>
     <t>Claim.diagnosis.modifierExtension</t>
   </si>
   <si>
@@ -1488,6 +1498,16 @@
   </si>
   <si>
     <t>Claim.procedure.extension</t>
+  </si>
+  <si>
+    <t>procedureGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/procedure-group}
+</t>
+  </si>
+  <si>
+    <t>Groups assigned to categorize related procedures</t>
   </si>
   <si>
     <t>Claim.procedure.modifierExtension</t>
@@ -2525,7 +2545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL174"/>
+  <dimension ref="A1:AL176"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10710,7 +10730,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10732,14 +10752,12 @@
         <v>96</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>42</v>
@@ -10776,16 +10794,14 @@
         <v>42</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB76" s="2"/>
       <c r="AC76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE76" t="s" s="2">
         <v>145</v>
@@ -10809,48 +10825,46 @@
         <v>42</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>96</v>
+        <v>436</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>287</v>
+        <v>437</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>42</v>
       </c>
@@ -10898,7 +10912,7 @@
         <v>42</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -10907,7 +10921,7 @@
         <v>41</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>102</v>
@@ -10924,42 +10938,42 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>358</v>
+        <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>437</v>
+        <v>287</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>438</v>
+        <v>288</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>439</v>
+        <v>125</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>440</v>
+        <v>126</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
@@ -11008,19 +11022,19 @@
         <v>42</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>436</v>
+        <v>289</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>42</v>
@@ -11029,12 +11043,12 @@
         <v>42</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11057,17 +11071,19 @@
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -11092,13 +11108,13 @@
         <v>42</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>446</v>
+        <v>42</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>447</v>
+        <v>42</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>42</v>
@@ -11116,7 +11132,7 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>50</v>
@@ -11142,7 +11158,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11150,10 +11166,10 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>42</v>
@@ -11165,19 +11181,17 @@
         <v>42</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>157</v>
+        <v>445</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>42</v>
@@ -11205,10 +11219,10 @@
         <v>214</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>42</v>
@@ -11226,13 +11240,13 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>42</v>
@@ -11252,7 +11266,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11263,7 +11277,7 @@
         <v>40</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>42</v>
@@ -11278,14 +11292,16 @@
         <v>157</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="N81" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>42</v>
@@ -11313,10 +11329,10 @@
         <v>214</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>42</v>
@@ -11334,13 +11350,13 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>42</v>
@@ -11360,7 +11376,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11386,16 +11402,14 @@
         <v>157</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
@@ -11423,10 +11437,10 @@
         <v>214</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>42</v>
@@ -11444,7 +11458,7 @@
         <v>42</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -11470,7 +11484,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11481,7 +11495,7 @@
         <v>40</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>42</v>
@@ -11493,17 +11507,19 @@
         <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="N83" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
@@ -11528,13 +11544,13 @@
         <v>42</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>42</v>
+        <v>469</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>42</v>
+        <v>470</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>42</v>
@@ -11552,13 +11568,13 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>42</v>
@@ -11578,7 +11594,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11589,7 +11605,7 @@
         <v>40</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>42</v>
@@ -11601,16 +11617,18 @@
         <v>42</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>52</v>
+        <v>278</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>137</v>
+        <v>472</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>138</v>
+        <v>473</v>
       </c>
       <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+      <c r="N84" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>42</v>
       </c>
@@ -11658,19 +11676,19 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>139</v>
+        <v>471</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>42</v>
@@ -11679,23 +11697,23 @@
         <v>42</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>42</v>
@@ -11707,17 +11725,15 @@
         <v>42</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>42</v>
@@ -11766,19 +11782,19 @@
         <v>42</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>42</v>
@@ -11792,11 +11808,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11809,26 +11825,22 @@
         <v>42</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>287</v>
+        <v>97</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>42</v>
       </c>
@@ -11864,19 +11876,17 @@
         <v>42</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB86" s="2"/>
       <c r="AC86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -11897,20 +11907,22 @@
         <v>42</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B87" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="C87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>50</v>
@@ -11925,18 +11937,16 @@
         <v>42</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>358</v>
+        <v>478</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>478</v>
-      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>42</v>
       </c>
@@ -11984,19 +11994,19 @@
         <v>42</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>475</v>
+        <v>145</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>42</v>
@@ -12005,16 +12015,16 @@
         <v>42</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12027,25 +12037,25 @@
         <v>42</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>480</v>
+        <v>287</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>481</v>
+        <v>125</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>452</v>
+        <v>126</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>42</v>
@@ -12070,13 +12080,13 @@
         <v>42</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>482</v>
+        <v>42</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>483</v>
+        <v>42</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>42</v>
@@ -12094,7 +12104,7 @@
         <v>42</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>479</v>
+        <v>289</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
@@ -12106,7 +12116,7 @@
         <v>42</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>42</v>
@@ -12115,12 +12125,12 @@
         <v>42</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12128,7 +12138,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>50</v>
@@ -12143,17 +12153,17 @@
         <v>42</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>42</v>
@@ -12202,10 +12212,10 @@
         <v>42</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>50</v>
@@ -12228,7 +12238,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12236,10 +12246,10 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>42</v>
@@ -12251,17 +12261,19 @@
         <v>42</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>489</v>
+        <v>157</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="N90" t="s" s="2">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>42</v>
@@ -12289,10 +12301,10 @@
         <v>214</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>42</v>
@@ -12310,13 +12322,13 @@
         <v>42</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>42</v>
@@ -12336,7 +12348,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12347,7 +12359,7 @@
         <v>40</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>42</v>
@@ -12359,17 +12371,17 @@
         <v>42</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>496</v>
+        <v>237</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>42</v>
@@ -12418,13 +12430,13 @@
         <v>42</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>42</v>
@@ -12444,7 +12456,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12455,7 +12467,7 @@
         <v>50</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>42</v>
@@ -12464,22 +12476,20 @@
         <v>42</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>278</v>
+        <v>495</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>42</v>
@@ -12504,13 +12514,13 @@
         <v>42</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>42</v>
+        <v>499</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>42</v>
@@ -12528,13 +12538,13 @@
         <v>42</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>42</v>
@@ -12549,12 +12559,12 @@
         <v>42</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>505</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12565,7 +12575,7 @@
         <v>40</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>42</v>
@@ -12577,16 +12587,18 @@
         <v>42</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>52</v>
+        <v>502</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>137</v>
+        <v>503</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>138</v>
+        <v>504</v>
       </c>
       <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+      <c r="N93" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>42</v>
       </c>
@@ -12634,19 +12646,19 @@
         <v>42</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>139</v>
+        <v>501</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>42</v>
@@ -12655,20 +12667,20 @@
         <v>42</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>41</v>
@@ -12680,21 +12692,23 @@
         <v>42</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>142</v>
+        <v>507</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>143</v>
+        <v>508</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>42</v>
       </c>
@@ -12742,10 +12756,10 @@
         <v>42</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>145</v>
+        <v>506</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>41</v>
@@ -12754,7 +12768,7 @@
         <v>42</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>42</v>
@@ -12763,48 +12777,44 @@
         <v>42</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>140</v>
+        <v>511</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>42</v>
       </c>
@@ -12852,19 +12862,19 @@
         <v>42</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>289</v>
+        <v>139</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>42</v>
@@ -12873,23 +12883,23 @@
         <v>42</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>64</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>42</v>
@@ -12898,21 +12908,21 @@
         <v>42</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>358</v>
+        <v>96</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>510</v>
+        <v>142</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>42</v>
       </c>
@@ -12960,19 +12970,19 @@
         <v>42</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>509</v>
+        <v>145</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>42</v>
@@ -12981,47 +12991,47 @@
         <v>42</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>369</v>
+        <v>96</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>514</v>
+        <v>287</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>515</v>
+        <v>288</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>516</v>
+        <v>125</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>517</v>
+        <v>126</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>42</v>
@@ -13070,19 +13080,19 @@
         <v>42</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>513</v>
+        <v>289</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>42</v>
@@ -13091,12 +13101,12 @@
         <v>42</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13104,7 +13114,7 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>50</v>
@@ -13116,22 +13126,20 @@
         <v>42</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>130</v>
+        <v>358</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>42</v>
@@ -13180,10 +13188,10 @@
         <v>42</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>50</v>
@@ -13195,10 +13203,10 @@
         <v>63</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>42</v>
@@ -13206,7 +13214,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13229,17 +13237,19 @@
         <v>51</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>524</v>
+        <v>369</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="N99" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>42</v>
@@ -13288,7 +13298,7 @@
         <v>42</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>50</v>
@@ -13314,7 +13324,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13337,17 +13347,19 @@
         <v>42</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M100" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="N100" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>42</v>
@@ -13396,7 +13408,7 @@
         <v>42</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
@@ -13411,10 +13423,10 @@
         <v>63</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>42</v>
@@ -13422,7 +13434,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13430,10 +13442,10 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>42</v>
@@ -13442,22 +13454,20 @@
         <v>42</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>52</v>
+        <v>530</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>42</v>
@@ -13506,13 +13516,13 @@
         <v>42</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>42</v>
@@ -13532,7 +13542,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13555,19 +13565,17 @@
         <v>42</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>538</v>
+        <v>52</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>541</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>42</v>
@@ -13616,7 +13624,7 @@
         <v>42</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
@@ -13642,7 +13650,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13653,7 +13661,7 @@
         <v>40</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>42</v>
@@ -13665,17 +13673,19 @@
         <v>42</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>278</v>
+        <v>52</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M103" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="N103" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>42</v>
@@ -13724,13 +13734,13 @@
         <v>42</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>42</v>
@@ -13750,7 +13760,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13773,16 +13783,20 @@
         <v>42</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>52</v>
+        <v>544</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>137</v>
+        <v>545</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>42</v>
       </c>
@@ -13830,7 +13844,7 @@
         <v>42</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>139</v>
+        <v>543</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>40</v>
@@ -13842,7 +13856,7 @@
         <v>42</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>42</v>
@@ -13851,23 +13865,23 @@
         <v>42</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>42</v>
@@ -13879,18 +13893,18 @@
         <v>42</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>142</v>
+        <v>550</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>42</v>
       </c>
@@ -13938,19 +13952,19 @@
         <v>42</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>145</v>
+        <v>549</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>42</v>
@@ -13959,48 +13973,44 @@
         <v>42</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>42</v>
       </c>
@@ -14048,19 +14058,19 @@
         <v>42</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>289</v>
+        <v>139</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>42</v>
@@ -14069,23 +14079,23 @@
         <v>42</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>64</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>42</v>
@@ -14097,20 +14107,18 @@
         <v>42</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>551</v>
+        <v>96</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>552</v>
+        <v>142</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>553</v>
+        <v>143</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>42</v>
       </c>
@@ -14158,19 +14166,19 @@
         <v>42</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>550</v>
+        <v>145</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>42</v>
@@ -14179,45 +14187,47 @@
         <v>42</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>557</v>
+        <v>287</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M108" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="N108" t="s" s="2">
-        <v>559</v>
+        <v>126</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>42</v>
@@ -14242,13 +14252,13 @@
         <v>42</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>560</v>
+        <v>42</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>561</v>
+        <v>42</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>42</v>
@@ -14266,19 +14276,19 @@
         <v>42</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>556</v>
+        <v>289</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>42</v>
@@ -14287,12 +14297,12 @@
         <v>42</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14300,7 +14310,7 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>50</v>
@@ -14315,17 +14325,19 @@
         <v>42</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M109" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="N109" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>42</v>
@@ -14374,10 +14386,10 @@
         <v>42</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>50</v>
@@ -14400,7 +14412,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14411,7 +14423,7 @@
         <v>40</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>42</v>
@@ -14423,17 +14435,17 @@
         <v>42</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>42</v>
@@ -14458,13 +14470,13 @@
         <v>42</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>42</v>
+        <v>566</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>42</v>
+        <v>567</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>42</v>
@@ -14482,13 +14494,13 @@
         <v>42</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>42</v>
@@ -14508,7 +14520,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14531,16 +14543,18 @@
         <v>42</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>52</v>
+        <v>569</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>137</v>
+        <v>570</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>138</v>
+        <v>571</v>
       </c>
       <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+      <c r="N111" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>42</v>
       </c>
@@ -14588,7 +14602,7 @@
         <v>42</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>139</v>
+        <v>568</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -14600,7 +14614,7 @@
         <v>42</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>42</v>
@@ -14609,12 +14623,12 @@
         <v>42</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14637,16 +14651,18 @@
         <v>42</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>97</v>
+        <v>574</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>98</v>
+        <v>575</v>
       </c>
       <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
+      <c r="N112" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>42</v>
       </c>
@@ -14682,17 +14698,19 @@
         <v>42</v>
       </c>
       <c r="AA112" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB112" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC112" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>145</v>
+        <v>573</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
@@ -14704,7 +14722,7 @@
         <v>42</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>42</v>
@@ -14718,11 +14736,9 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
         <v>42</v>
       </c>
@@ -14743,13 +14759,13 @@
         <v>42</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>574</v>
+        <v>52</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>575</v>
+        <v>137</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>575</v>
+        <v>138</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -14800,19 +14816,19 @@
         <v>42</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>42</v>
@@ -14821,16 +14837,14 @@
         <v>42</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>64</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>576</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
         <v>42</v>
       </c>
@@ -14839,7 +14853,7 @@
         <v>40</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>42</v>
@@ -14851,13 +14865,13 @@
         <v>42</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>577</v>
+        <v>96</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>578</v>
+        <v>97</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>578</v>
+        <v>98</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -14896,16 +14910,14 @@
         <v>42</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB114" s="2"/>
       <c r="AC114" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE114" t="s" s="2">
         <v>145</v>
@@ -14917,7 +14929,7 @@
         <v>41</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>102</v>
@@ -14929,48 +14941,46 @@
         <v>42</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B115" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>96</v>
+        <v>580</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>287</v>
+        <v>581</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>42</v>
       </c>
@@ -15018,7 +15028,7 @@
         <v>42</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>40</v>
@@ -15027,7 +15037,7 @@
         <v>41</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>102</v>
@@ -15044,15 +15054,17 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B116" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>582</v>
+      </c>
       <c r="C116" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s" s="2">
         <v>50</v>
@@ -15067,18 +15079,16 @@
         <v>42</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>358</v>
+        <v>583</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M116" s="2"/>
-      <c r="N116" t="s" s="2">
-        <v>583</v>
-      </c>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>42</v>
       </c>
@@ -15126,19 +15136,19 @@
         <v>42</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>580</v>
+        <v>145</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>42</v>
@@ -15147,16 +15157,16 @@
         <v>42</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15169,23 +15179,25 @@
         <v>42</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>358</v>
+        <v>96</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>585</v>
+        <v>287</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M117" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="N117" t="s" s="2">
-        <v>587</v>
+        <v>126</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>42</v>
@@ -15234,7 +15246,7 @@
         <v>42</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>584</v>
+        <v>289</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
@@ -15246,7 +15258,7 @@
         <v>42</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>42</v>
@@ -15255,12 +15267,12 @@
         <v>42</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15268,10 +15280,10 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>42</v>
@@ -15286,14 +15298,14 @@
         <v>358</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>42</v>
@@ -15342,13 +15354,13 @@
         <v>42</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>42</v>
@@ -15368,7 +15380,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15394,14 +15406,14 @@
         <v>358</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>42</v>
@@ -15450,7 +15462,7 @@
         <v>42</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -15476,7 +15488,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15502,14 +15514,14 @@
         <v>358</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>42</v>
@@ -15558,7 +15570,7 @@
         <v>42</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>40</v>
@@ -15584,7 +15596,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15595,7 +15607,7 @@
         <v>40</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>42</v>
@@ -15607,17 +15619,17 @@
         <v>42</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>157</v>
+        <v>358</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>42</v>
@@ -15642,13 +15654,13 @@
         <v>42</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>604</v>
+        <v>42</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>605</v>
+        <v>42</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>42</v>
@@ -15666,13 +15678,13 @@
         <v>42</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>42</v>
@@ -15692,7 +15704,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15703,7 +15715,7 @@
         <v>40</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>42</v>
@@ -15715,19 +15727,17 @@
         <v>42</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>157</v>
+        <v>358</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>42</v>
@@ -15752,13 +15762,13 @@
         <v>42</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>611</v>
+        <v>42</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>612</v>
+        <v>42</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>42</v>
@@ -15776,13 +15786,13 @@
         <v>42</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>42</v>
@@ -15802,15 +15812,15 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>614</v>
+        <v>42</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>50</v>
@@ -15828,16 +15838,14 @@
         <v>157</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>42</v>
@@ -15865,10 +15873,10 @@
         <v>214</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>42</v>
@@ -15886,10 +15894,10 @@
         <v>42</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>50</v>
@@ -15912,7 +15920,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15923,7 +15931,7 @@
         <v>40</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>42</v>
@@ -15938,16 +15946,16 @@
         <v>157</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>42</v>
@@ -15975,10 +15983,10 @@
         <v>214</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>42</v>
@@ -15996,13 +16004,13 @@
         <v>42</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>42</v>
@@ -16022,18 +16030,18 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>42</v>
+        <v>620</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>42</v>
@@ -16048,16 +16056,16 @@
         <v>157</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>42</v>
@@ -16085,10 +16093,10 @@
         <v>214</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>42</v>
@@ -16106,13 +16114,13 @@
         <v>42</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>42</v>
@@ -16132,7 +16140,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16143,7 +16151,7 @@
         <v>40</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>42</v>
@@ -16155,17 +16163,19 @@
         <v>42</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>412</v>
+        <v>157</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="M126" s="2"/>
+        <v>629</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="N126" t="s" s="2">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>42</v>
@@ -16190,13 +16200,13 @@
         <v>42</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>42</v>
+        <v>632</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>42</v>
+        <v>633</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>42</v>
@@ -16214,13 +16224,13 @@
         <v>42</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>42</v>
@@ -16232,7 +16242,7 @@
         <v>42</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>42</v>
@@ -16240,7 +16250,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16251,7 +16261,7 @@
         <v>40</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>42</v>
@@ -16263,17 +16273,19 @@
         <v>42</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>640</v>
+        <v>157</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="M127" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="N127" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>42</v>
@@ -16301,10 +16313,10 @@
         <v>214</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>42</v>
@@ -16322,13 +16334,13 @@
         <v>42</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>42</v>
@@ -16340,7 +16352,7 @@
         <v>42</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>42</v>
@@ -16348,7 +16360,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16371,17 +16383,17 @@
         <v>42</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>647</v>
+        <v>412</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>42</v>
@@ -16430,7 +16442,7 @@
         <v>42</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>40</v>
@@ -16448,7 +16460,7 @@
         <v>42</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>42</v>
@@ -16456,7 +16468,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16479,16 +16491,18 @@
         <v>42</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>52</v>
+        <v>646</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>137</v>
+        <v>647</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>138</v>
+        <v>648</v>
       </c>
       <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
+      <c r="N129" t="s" s="2">
+        <v>649</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>42</v>
       </c>
@@ -16512,13 +16526,13 @@
         <v>42</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>42</v>
+        <v>650</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>42</v>
+        <v>651</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>42</v>
@@ -16536,7 +16550,7 @@
         <v>42</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>139</v>
+        <v>645</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>40</v>
@@ -16548,16 +16562,16 @@
         <v>42</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" hidden="true">
@@ -16566,14 +16580,14 @@
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>42</v>
@@ -16585,18 +16599,18 @@
         <v>42</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>96</v>
+        <v>653</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>142</v>
+        <v>654</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="M130" s="2"/>
+      <c r="N130" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>42</v>
       </c>
@@ -16632,31 +16646,31 @@
         <v>42</v>
       </c>
       <c r="AA130" t="s" s="2">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="AB130" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="AC130" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD130" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>145</v>
+        <v>652</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>42</v>
@@ -16665,16 +16679,14 @@
         <v>42</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>653</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
         <v>42</v>
       </c>
@@ -16695,13 +16707,13 @@
         <v>42</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>654</v>
+        <v>52</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>655</v>
+        <v>137</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>655</v>
+        <v>138</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -16752,19 +16764,19 @@
         <v>42</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>42</v>
@@ -16773,23 +16785,23 @@
         <v>42</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>64</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>42</v>
@@ -16798,23 +16810,21 @@
         <v>42</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>657</v>
+        <v>96</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>658</v>
+        <v>142</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>659</v>
+        <v>143</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>661</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>42</v>
       </c>
@@ -16850,31 +16860,31 @@
         <v>42</v>
       </c>
       <c r="AA132" t="s" s="2">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="AB132" t="s" s="2">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="AC132" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD132" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>662</v>
+        <v>145</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>42</v>
@@ -16883,14 +16893,16 @@
         <v>42</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>663</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="B133" s="2"/>
+        <v>658</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>659</v>
+      </c>
       <c r="C133" t="s" s="2">
         <v>42</v>
       </c>
@@ -16899,36 +16911,32 @@
         <v>40</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>72</v>
+        <v>660</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="M133" s="2"/>
-      <c r="N133" t="s" s="2">
-        <v>667</v>
-      </c>
+      <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P133" t="s" s="2">
-        <v>668</v>
-      </c>
+      <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
         <v>42</v>
       </c>
@@ -16948,13 +16956,13 @@
         <v>42</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>669</v>
+        <v>42</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>670</v>
+        <v>42</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>42</v>
@@ -16972,19 +16980,19 @@
         <v>42</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>671</v>
+        <v>145</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>42</v>
@@ -16993,12 +17001,12 @@
         <v>42</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>672</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17021,17 +17029,19 @@
         <v>51</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>52</v>
+        <v>663</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="M134" s="2"/>
+        <v>665</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>666</v>
+      </c>
       <c r="N134" t="s" s="2">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>42</v>
@@ -17080,7 +17090,7 @@
         <v>42</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>40</v>
@@ -17101,12 +17111,12 @@
         <v>42</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>678</v>
+        <v>669</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17117,34 +17127,36 @@
         <v>40</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" t="s" s="2">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P135" s="2"/>
+      <c r="P135" t="s" s="2">
+        <v>674</v>
+      </c>
       <c r="Q135" t="s" s="2">
         <v>42</v>
       </c>
@@ -17164,13 +17176,13 @@
         <v>42</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>42</v>
+        <v>675</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>42</v>
+        <v>676</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>42</v>
@@ -17188,7 +17200,7 @@
         <v>42</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -17197,7 +17209,7 @@
         <v>50</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>684</v>
+        <v>42</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>63</v>
@@ -17209,12 +17221,12 @@
         <v>42</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17237,19 +17249,17 @@
         <v>51</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>689</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>42</v>
@@ -17298,7 +17308,7 @@
         <v>42</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>40</v>
@@ -17319,12 +17329,12 @@
         <v>42</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17344,20 +17354,20 @@
         <v>42</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>694</v>
+        <v>66</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>42</v>
@@ -17406,7 +17416,7 @@
         <v>42</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>40</v>
@@ -17415,7 +17425,7 @@
         <v>50</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>42</v>
+        <v>690</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>63</v>
@@ -17427,12 +17437,12 @@
         <v>42</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>42</v>
+        <v>691</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17452,22 +17462,22 @@
         <v>42</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>657</v>
+        <v>72</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>42</v>
@@ -17516,7 +17526,7 @@
         <v>42</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>40</v>
@@ -17537,12 +17547,12 @@
         <v>42</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>42</v>
+        <v>698</v>
       </c>
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17565,19 +17575,17 @@
         <v>42</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>706</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>42</v>
@@ -17626,7 +17634,7 @@
         <v>42</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>40</v>
@@ -17652,7 +17660,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17663,7 +17671,7 @@
         <v>40</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>42</v>
@@ -17675,17 +17683,19 @@
         <v>42</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>496</v>
+        <v>663</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>497</v>
+        <v>705</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M140" s="2"/>
+        <v>706</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>707</v>
+      </c>
       <c r="N140" t="s" s="2">
-        <v>499</v>
+        <v>708</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>42</v>
@@ -17734,13 +17744,13 @@
         <v>42</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>42</v>
@@ -17783,7 +17793,7 @@
         <v>42</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>157</v>
+        <v>700</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>710</v>
@@ -17820,13 +17830,13 @@
         <v>42</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>714</v>
+        <v>42</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>715</v>
+        <v>42</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>42</v>
@@ -17870,7 +17880,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17893,17 +17903,17 @@
         <v>42</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>157</v>
+        <v>502</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>717</v>
+        <v>503</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>718</v>
+        <v>504</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>713</v>
+        <v>505</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>42</v>
@@ -17928,13 +17938,13 @@
         <v>42</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>719</v>
+        <v>42</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>720</v>
+        <v>42</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>42</v>
@@ -17952,7 +17962,7 @@
         <v>42</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -17978,7 +17988,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17989,7 +17999,7 @@
         <v>40</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>42</v>
@@ -18001,19 +18011,19 @@
         <v>42</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>722</v>
+        <v>157</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>42</v>
@@ -18038,13 +18048,13 @@
         <v>42</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>42</v>
+        <v>720</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>42</v>
+        <v>721</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>42</v>
@@ -18062,13 +18072,13 @@
         <v>42</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>42</v>
@@ -18077,7 +18087,7 @@
         <v>63</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>727</v>
+        <v>42</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>42</v>
@@ -18088,7 +18098,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18111,17 +18121,17 @@
         <v>42</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>568</v>
+        <v>723</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>570</v>
+        <v>719</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>42</v>
@@ -18146,13 +18156,13 @@
         <v>42</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>42</v>
+        <v>725</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>42</v>
+        <v>726</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>42</v>
@@ -18170,7 +18180,7 @@
         <v>42</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
@@ -18196,7 +18206,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18207,7 +18217,7 @@
         <v>40</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>42</v>
@@ -18219,16 +18229,20 @@
         <v>42</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>52</v>
+        <v>728</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>137</v>
+        <v>729</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
+        <v>730</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>732</v>
+      </c>
       <c r="O145" t="s" s="2">
         <v>42</v>
       </c>
@@ -18276,37 +18290,37 @@
         <v>42</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>139</v>
+        <v>727</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>42</v>
+        <v>733</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -18325,18 +18339,18 @@
         <v>42</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>142</v>
+        <v>574</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N146" s="2"/>
+        <v>735</v>
+      </c>
+      <c r="M146" s="2"/>
+      <c r="N146" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="O146" t="s" s="2">
         <v>42</v>
       </c>
@@ -18384,7 +18398,7 @@
         <v>42</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>145</v>
+        <v>734</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>40</v>
@@ -18396,7 +18410,7 @@
         <v>42</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>42</v>
@@ -18405,48 +18419,44 @@
         <v>42</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
         <v>42</v>
       </c>
@@ -18494,19 +18504,19 @@
         <v>42</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>289</v>
+        <v>139</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>42</v>
@@ -18515,23 +18525,23 @@
         <v>42</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>64</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>42</v>
@@ -18543,18 +18553,18 @@
         <v>42</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>358</v>
+        <v>96</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>581</v>
+        <v>142</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M148" s="2"/>
-      <c r="N148" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
         <v>42</v>
       </c>
@@ -18602,19 +18612,19 @@
         <v>42</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>733</v>
+        <v>145</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>42</v>
@@ -18623,45 +18633,47 @@
         <v>42</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I149" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>601</v>
+        <v>287</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M149" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="N149" t="s" s="2">
-        <v>603</v>
+        <v>126</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>42</v>
@@ -18686,13 +18698,13 @@
         <v>42</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>604</v>
+        <v>42</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>605</v>
+        <v>42</v>
       </c>
       <c r="Z149" t="s" s="2">
         <v>42</v>
@@ -18710,19 +18722,19 @@
         <v>42</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>734</v>
+        <v>289</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>42</v>
@@ -18731,12 +18743,12 @@
         <v>42</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18744,7 +18756,7 @@
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F150" t="s" s="2">
         <v>50</v>
@@ -18759,19 +18771,17 @@
         <v>42</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>157</v>
+        <v>358</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="M150" s="2"/>
       <c r="N150" t="s" s="2">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>42</v>
@@ -18796,13 +18806,13 @@
         <v>42</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>611</v>
+        <v>42</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>612</v>
+        <v>42</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>42</v>
@@ -18820,10 +18830,10 @@
         <v>42</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>50</v>
@@ -18846,15 +18856,15 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>614</v>
+        <v>42</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F151" t="s" s="2">
         <v>50</v>
@@ -18872,16 +18882,14 @@
         <v>157</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="M151" s="2"/>
       <c r="N151" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>42</v>
@@ -18909,10 +18917,10 @@
         <v>214</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>42</v>
@@ -18930,10 +18938,10 @@
         <v>42</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>50</v>
@@ -18956,7 +18964,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18967,7 +18975,7 @@
         <v>40</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>42</v>
@@ -18982,16 +18990,16 @@
         <v>157</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>738</v>
+        <v>613</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>739</v>
+        <v>615</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>42</v>
@@ -19019,10 +19027,10 @@
         <v>214</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>42</v>
@@ -19040,13 +19048,13 @@
         <v>42</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>42</v>
@@ -19066,18 +19074,18 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>42</v>
+        <v>620</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>42</v>
@@ -19092,16 +19100,16 @@
         <v>157</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>42</v>
@@ -19129,10 +19137,10 @@
         <v>214</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>42</v>
@@ -19150,13 +19158,13 @@
         <v>42</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>42</v>
@@ -19176,7 +19184,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19187,7 +19195,7 @@
         <v>40</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>42</v>
@@ -19199,17 +19207,19 @@
         <v>42</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>647</v>
+        <v>157</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>648</v>
+        <v>744</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="M154" s="2"/>
+        <v>629</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>745</v>
+      </c>
       <c r="N154" t="s" s="2">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>42</v>
@@ -19234,13 +19244,13 @@
         <v>42</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>42</v>
+        <v>632</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>42</v>
+        <v>633</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>42</v>
@@ -19258,13 +19268,13 @@
         <v>42</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>42</v>
@@ -19284,7 +19294,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19295,7 +19305,7 @@
         <v>40</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>42</v>
@@ -19307,17 +19317,19 @@
         <v>42</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>694</v>
+        <v>157</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>695</v>
+        <v>635</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="M155" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="N155" t="s" s="2">
-        <v>697</v>
+        <v>638</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>42</v>
@@ -19342,13 +19354,13 @@
         <v>42</v>
       </c>
       <c r="W155" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>42</v>
+        <v>639</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>42</v>
+        <v>640</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>42</v>
@@ -19366,13 +19378,13 @@
         <v>42</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>42</v>
@@ -19392,7 +19404,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19415,19 +19427,17 @@
         <v>42</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>699</v>
+        <v>654</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>701</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>702</v>
+        <v>656</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>42</v>
@@ -19476,7 +19486,7 @@
         <v>42</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>40</v>
@@ -19502,7 +19512,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19525,19 +19535,17 @@
         <v>42</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>706</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="M157" s="2"/>
       <c r="N157" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>42</v>
@@ -19586,7 +19594,7 @@
         <v>42</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>40</v>
@@ -19612,7 +19620,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19623,7 +19631,7 @@
         <v>40</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>42</v>
@@ -19635,17 +19643,19 @@
         <v>42</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>496</v>
+        <v>663</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>497</v>
+        <v>705</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M158" s="2"/>
+        <v>706</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>707</v>
+      </c>
       <c r="N158" t="s" s="2">
-        <v>499</v>
+        <v>708</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>42</v>
@@ -19694,13 +19704,13 @@
         <v>42</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>42</v>
@@ -19720,7 +19730,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19731,7 +19741,7 @@
         <v>40</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>42</v>
@@ -19743,17 +19753,19 @@
         <v>42</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>278</v>
+        <v>700</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>568</v>
+        <v>710</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="M159" s="2"/>
+        <v>711</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>712</v>
+      </c>
       <c r="N159" t="s" s="2">
-        <v>570</v>
+        <v>713</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>42</v>
@@ -19802,13 +19814,13 @@
         <v>42</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>42</v>
@@ -19828,7 +19840,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19839,7 +19851,7 @@
         <v>40</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>42</v>
@@ -19851,16 +19863,18 @@
         <v>42</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>52</v>
+        <v>502</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>137</v>
+        <v>503</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>138</v>
+        <v>504</v>
       </c>
       <c r="M160" s="2"/>
-      <c r="N160" s="2"/>
+      <c r="N160" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="O160" t="s" s="2">
         <v>42</v>
       </c>
@@ -19908,19 +19922,19 @@
         <v>42</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>139</v>
+        <v>751</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>42</v>
@@ -19929,16 +19943,16 @@
         <v>42</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -19957,18 +19971,18 @@
         <v>42</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>142</v>
+        <v>574</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N161" s="2"/>
+        <v>735</v>
+      </c>
+      <c r="M161" s="2"/>
+      <c r="N161" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="O161" t="s" s="2">
         <v>42</v>
       </c>
@@ -20016,7 +20030,7 @@
         <v>42</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>145</v>
+        <v>752</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>40</v>
@@ -20028,7 +20042,7 @@
         <v>42</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>42</v>
@@ -20037,48 +20051,44 @@
         <v>42</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
         <v>42</v>
       </c>
@@ -20126,19 +20136,19 @@
         <v>42</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>289</v>
+        <v>139</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>42</v>
@@ -20147,23 +20157,23 @@
         <v>42</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>64</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>42</v>
@@ -20175,18 +20185,18 @@
         <v>42</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>358</v>
+        <v>96</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>581</v>
+        <v>142</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M163" s="2"/>
-      <c r="N163" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
         <v>42</v>
       </c>
@@ -20234,19 +20244,19 @@
         <v>42</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>750</v>
+        <v>145</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>42</v>
@@ -20255,45 +20265,47 @@
         <v>42</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I164" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>601</v>
+        <v>287</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M164" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="N164" t="s" s="2">
-        <v>603</v>
+        <v>126</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>42</v>
@@ -20318,13 +20330,13 @@
         <v>42</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>604</v>
+        <v>42</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>605</v>
+        <v>42</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>42</v>
@@ -20342,19 +20354,19 @@
         <v>42</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>751</v>
+        <v>289</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>42</v>
@@ -20363,12 +20375,12 @@
         <v>42</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20376,7 +20388,7 @@
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F165" t="s" s="2">
         <v>50</v>
@@ -20391,19 +20403,17 @@
         <v>42</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>157</v>
+        <v>358</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>42</v>
@@ -20428,13 +20438,13 @@
         <v>42</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>611</v>
+        <v>42</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>612</v>
+        <v>42</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>42</v>
@@ -20452,10 +20462,10 @@
         <v>42</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>50</v>
@@ -20478,7 +20488,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20486,7 +20496,7 @@
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F166" t="s" s="2">
         <v>50</v>
@@ -20504,16 +20514,14 @@
         <v>157</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>42</v>
@@ -20541,10 +20549,10 @@
         <v>214</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>42</v>
@@ -20562,10 +20570,10 @@
         <v>42</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>50</v>
@@ -20588,7 +20596,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20599,7 +20607,7 @@
         <v>40</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>42</v>
@@ -20614,16 +20622,16 @@
         <v>157</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>738</v>
+        <v>613</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>739</v>
+        <v>615</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>42</v>
@@ -20651,10 +20659,10 @@
         <v>214</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>42</v>
@@ -20672,13 +20680,13 @@
         <v>42</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>42</v>
@@ -20698,7 +20706,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20706,10 +20714,10 @@
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>42</v>
@@ -20724,16 +20732,16 @@
         <v>157</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>42</v>
@@ -20761,10 +20769,10 @@
         <v>214</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>42</v>
@@ -20782,13 +20790,13 @@
         <v>42</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>42</v>
@@ -20808,7 +20816,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20819,7 +20827,7 @@
         <v>40</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>42</v>
@@ -20831,17 +20839,19 @@
         <v>42</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>647</v>
+        <v>157</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>648</v>
+        <v>744</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="M169" s="2"/>
+        <v>629</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>745</v>
+      </c>
       <c r="N169" t="s" s="2">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>42</v>
@@ -20866,13 +20876,13 @@
         <v>42</v>
       </c>
       <c r="W169" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>42</v>
+        <v>632</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>42</v>
+        <v>633</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>42</v>
@@ -20890,13 +20900,13 @@
         <v>42</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>42</v>
@@ -20916,7 +20926,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20927,7 +20937,7 @@
         <v>40</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>42</v>
@@ -20939,17 +20949,19 @@
         <v>42</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>694</v>
+        <v>157</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>695</v>
+        <v>635</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="M170" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="N170" t="s" s="2">
-        <v>697</v>
+        <v>638</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>42</v>
@@ -20974,13 +20986,13 @@
         <v>42</v>
       </c>
       <c r="W170" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>42</v>
+        <v>639</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>42</v>
+        <v>640</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>42</v>
@@ -20998,13 +21010,13 @@
         <v>42</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>42</v>
@@ -21024,7 +21036,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21047,19 +21059,17 @@
         <v>42</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>699</v>
+        <v>654</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>701</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>702</v>
+        <v>656</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>42</v>
@@ -21108,7 +21118,7 @@
         <v>42</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>40</v>
@@ -21134,7 +21144,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21157,19 +21167,17 @@
         <v>42</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>706</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>42</v>
@@ -21218,7 +21226,7 @@
         <v>42</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>40</v>
@@ -21244,7 +21252,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21255,7 +21263,7 @@
         <v>40</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>42</v>
@@ -21267,17 +21275,19 @@
         <v>42</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>496</v>
+        <v>663</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>497</v>
+        <v>705</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M173" s="2"/>
+        <v>706</v>
+      </c>
+      <c r="M173" t="s" s="2">
+        <v>707</v>
+      </c>
       <c r="N173" t="s" s="2">
-        <v>499</v>
+        <v>708</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>42</v>
@@ -21326,13 +21336,13 @@
         <v>42</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>42</v>
@@ -21352,7 +21362,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21375,17 +21385,19 @@
         <v>42</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>762</v>
+        <v>710</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="M174" s="2"/>
+        <v>711</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>712</v>
+      </c>
       <c r="N174" t="s" s="2">
-        <v>764</v>
+        <v>713</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>42</v>
@@ -21434,7 +21446,7 @@
         <v>42</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>40</v>
@@ -21458,8 +21470,224 @@
         <v>42</v>
       </c>
     </row>
+    <row r="175" hidden="true">
+      <c r="A175" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F175" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M175" s="2"/>
+      <c r="N175" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P175" s="2"/>
+      <c r="Q175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL175" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176" hidden="true">
+      <c r="A176" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F176" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="M176" s="2"/>
+      <c r="N176" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="O176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P176" s="2"/>
+      <c r="Q176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL176" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL174">
+  <autoFilter ref="A1:AL176">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -21469,7 +21697,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI173">
+  <conditionalFormatting sqref="A2:AI175">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
